--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed1/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13.0171</v>
+        <v>13.5944</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.727899999999992</v>
+        <v>-7.857199999999993</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.3642</v>
+        <v>5.174600000000003</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.38960000000001</v>
+        <v>-14.3555</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.354999999999995</v>
+        <v>-8.371799999999995</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,13 +519,13 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.53560000000001</v>
+        <v>-14.71650000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.55449999999999</v>
+        <v>12.42939999999999</v>
       </c>
     </row>
     <row r="6">
@@ -533,10 +533,10 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.338000000000005</v>
+        <v>9.043900000000006</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.01820000000001</v>
+        <v>-11.53100000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>4.886799999999998</v>
+        <v>5.240799999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.577400000000001</v>
+        <v>4.6519</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.42099999999999</v>
+        <v>-11.5438</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.029300000000001</v>
+        <v>-7.577199999999998</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.279500000000001</v>
+        <v>-8.400599999999997</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.2857</v>
+        <v>-6.727699999999993</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.873400000000009</v>
+        <v>9.116300000000006</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.7556</v>
+        <v>-12.01640000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.066099999999992</v>
+        <v>-8.099999999999993</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.302900000000001</v>
+        <v>5.102000000000004</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.19579999999999</v>
+        <v>12.06479999999999</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.023999999999997</v>
+        <v>4.9817</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.95929999999999</v>
+        <v>-11.08549999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.489199999999993</v>
+        <v>-8.692199999999991</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
